--- a/data/output/genus_subgroup/relative_abundance/data/default_stack_subgroup_Fecal_relative_abundance.xlsx
+++ b/data/output/genus_subgroup/relative_abundance/data/default_stack_subgroup_Fecal_relative_abundance.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">OB-BPD/DS </t>
+          <t>OB-BPD/DS</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -530,7 +530,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CHJ-BPD/DS+</t>
+          <t>VFGM-BPD/DS</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -567,7 +567,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CHJ-BPD/DS-</t>
+          <t>OB/SD</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -604,7 +604,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">CN/SD </t>
+          <t>CN/SD</t>
         </is>
       </c>
       <c r="B5" t="n">
